--- a/output/IBIUNA_18391138000124.xlsx
+++ b/output/IBIUNA_18391138000124.xlsx
@@ -1373,10 +1373,10 @@
         <v>44165</v>
       </c>
       <c r="B90">
-        <v>1.159097249</v>
+        <v>1.163531988</v>
       </c>
       <c r="C90">
-        <v>-0.005243916520438652</v>
+        <v>-0.003200709063740037</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_18391138000124.xlsx
+++ b/output/IBIUNA_18391138000124.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA LONG SHORT STLS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41486</v>
       </c>
@@ -411,972 +405,708 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41517</v>
       </c>
       <c r="B3">
         <v>-0.01678955500000001</v>
       </c>
-      <c r="C3">
-        <v>-0.01678955500000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41547</v>
       </c>
       <c r="B4">
-        <v>-0.04153463700000004</v>
-      </c>
-      <c r="C4">
         <v>-0.02516763539874722</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41578</v>
       </c>
       <c r="B5">
-        <v>-0.03922794600000001</v>
-      </c>
-      <c r="C5">
         <v>0.002406650348615758</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41608</v>
       </c>
       <c r="B6">
-        <v>-0.01933268799999999</v>
-      </c>
-      <c r="C6">
         <v>0.02070757357811326</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41639</v>
       </c>
       <c r="B7">
-        <v>-0.01269168300000001</v>
-      </c>
-      <c r="C7">
         <v>0.006771924503587323</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41670</v>
       </c>
       <c r="B8">
-        <v>-0.01422401399999995</v>
-      </c>
-      <c r="C8">
         <v>-0.001552028858275989</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41698</v>
       </c>
       <c r="B9">
-        <v>-0.006572522999999997</v>
-      </c>
-      <c r="C9">
         <v>0.007761896321949902</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41729</v>
       </c>
       <c r="B10">
-        <v>0.005555978999999933</v>
-      </c>
-      <c r="C10">
         <v>0.01220874425239993</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41759</v>
       </c>
       <c r="B11">
-        <v>0.01623073199999991</v>
-      </c>
-      <c r="C11">
         <v>0.01061577199373409</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41790</v>
       </c>
       <c r="B12">
-        <v>0.02261852999999991</v>
-      </c>
-      <c r="C12">
         <v>0.0062857752662413</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41820</v>
       </c>
       <c r="B13">
-        <v>0.03791542800000003</v>
-      </c>
-      <c r="C13">
         <v>0.01495855742023378</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41851</v>
       </c>
       <c r="B14">
-        <v>0.06222759</v>
-      </c>
-      <c r="C14">
         <v>0.02342402988155601</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41882</v>
       </c>
       <c r="B15">
-        <v>0.07741533</v>
-      </c>
-      <c r="C15">
         <v>0.01429800933715164</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41912</v>
       </c>
       <c r="B16">
-        <v>0.09249853599999991</v>
-      </c>
-      <c r="C16">
         <v>0.01399943511106327</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41943</v>
       </c>
       <c r="B17">
-        <v>0.1162996060000001</v>
-      </c>
-      <c r="C17">
         <v>0.02178590562431681</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41973</v>
       </c>
       <c r="B18">
-        <v>0.133833468</v>
-      </c>
-      <c r="C18">
         <v>0.01570712907695837</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42004</v>
       </c>
       <c r="B19">
-        <v>0.147615338</v>
-      </c>
-      <c r="C19">
         <v>0.01215510953677379</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42035</v>
       </c>
       <c r="B20">
-        <v>0.153398562</v>
-      </c>
-      <c r="C20">
         <v>0.005039340106832935</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42063</v>
       </c>
       <c r="B21">
-        <v>0.171848781</v>
-      </c>
-      <c r="C21">
         <v>0.01599639500851047</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42094</v>
       </c>
       <c r="B22">
-        <v>0.1888109660000001</v>
-      </c>
-      <c r="C22">
         <v>0.0144747217175285</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42124</v>
       </c>
       <c r="B23">
-        <v>0.1669738300000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01836888843099727</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42155</v>
       </c>
       <c r="B24">
-        <v>0.167018077</v>
-      </c>
-      <c r="C24">
         <v>3.791601736247152e-05</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42185</v>
       </c>
       <c r="B25">
-        <v>0.180424283</v>
-      </c>
-      <c r="C25">
         <v>0.01148757355538366</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42216</v>
       </c>
       <c r="B26">
-        <v>0.2161253160000001</v>
-      </c>
-      <c r="C26">
         <v>0.03024423803724829</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42247</v>
       </c>
       <c r="B27">
-        <v>0.2318149010000001</v>
-      </c>
-      <c r="C27">
         <v>0.0129012896891294</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42277</v>
       </c>
       <c r="B28">
-        <v>0.240875403</v>
-      </c>
-      <c r="C28">
         <v>0.007355408667848007</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42308</v>
       </c>
       <c r="B29">
-        <v>0.2310982909999999</v>
-      </c>
-      <c r="C29">
         <v>-0.007879205258128685</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42338</v>
       </c>
       <c r="B30">
-        <v>0.2385567210000001</v>
-      </c>
-      <c r="C30">
         <v>0.006058354604604244</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42369</v>
       </c>
       <c r="B31">
-        <v>0.2613127079999999</v>
-      </c>
-      <c r="C31">
         <v>0.01837298737648996</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42400</v>
       </c>
       <c r="B32">
-        <v>0.269889931</v>
-      </c>
-      <c r="C32">
         <v>0.006800235140420163</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42429</v>
       </c>
       <c r="B33">
-        <v>0.2873446050000001</v>
-      </c>
-      <c r="C33">
         <v>0.01374502905638053</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42460</v>
       </c>
       <c r="B34">
-        <v>0.3064057</v>
-      </c>
-      <c r="C34">
         <v>0.01480652105579749</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42490</v>
       </c>
       <c r="B35">
-        <v>0.3129805150000002</v>
-      </c>
-      <c r="C35">
         <v>0.005032751311480288</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42521</v>
       </c>
       <c r="B36">
-        <v>0.3541507400000001</v>
-      </c>
-      <c r="C36">
         <v>0.03135631072179312</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42551</v>
       </c>
       <c r="B37">
-        <v>0.3866512650000002</v>
-      </c>
-      <c r="C37">
         <v>0.02400066996972594</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42582</v>
       </c>
       <c r="B38">
-        <v>0.4152056529999999</v>
-      </c>
-      <c r="C38">
         <v>0.02059233544924477</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42613</v>
       </c>
       <c r="B39">
-        <v>0.3997248400000002</v>
-      </c>
-      <c r="C39">
         <v>-0.01093891404912284</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42643</v>
       </c>
       <c r="B40">
-        <v>0.4314960370000001</v>
-      </c>
-      <c r="C40">
         <v>0.02269817330669066</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42674</v>
       </c>
       <c r="B41">
-        <v>0.4649264880000001</v>
-      </c>
-      <c r="C41">
         <v>0.02335350579807449</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42704</v>
       </c>
       <c r="B42">
-        <v>0.462816221</v>
-      </c>
-      <c r="C42">
         <v>-0.001440527574104622</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42735</v>
       </c>
       <c r="B43">
-        <v>0.4884118340000001</v>
-      </c>
-      <c r="C43">
         <v>0.01749749054772076</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42766</v>
       </c>
       <c r="B44">
-        <v>0.5297812909999999</v>
-      </c>
-      <c r="C44">
         <v>0.02779436178548944</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42794</v>
       </c>
       <c r="B45">
-        <v>0.5399339140000001</v>
-      </c>
-      <c r="C45">
         <v>0.006636649996787147</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42825</v>
       </c>
       <c r="B46">
-        <v>0.560314805</v>
-      </c>
-      <c r="C46">
         <v>0.01323491275483391</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42855</v>
       </c>
       <c r="B47">
-        <v>0.5845123179999998</v>
-      </c>
-      <c r="C47">
         <v>0.01550809677794462</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42886</v>
       </c>
       <c r="B48">
-        <v>0.5790506149999999</v>
-      </c>
-      <c r="C48">
         <v>-0.003446929972052093</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42916</v>
       </c>
       <c r="B49">
-        <v>0.609354492</v>
-      </c>
-      <c r="C49">
         <v>0.0191912005303263</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42947</v>
       </c>
       <c r="B50">
-        <v>0.656339193</v>
-      </c>
-      <c r="C50">
         <v>0.02919474934426058</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42978</v>
       </c>
       <c r="B51">
-        <v>0.7072801960000001</v>
-      </c>
-      <c r="C51">
         <v>0.03075517576066922</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43008</v>
       </c>
       <c r="B52">
-        <v>0.7399952429999999</v>
-      </c>
-      <c r="C52">
         <v>0.01916208427687982</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43039</v>
       </c>
       <c r="B53">
-        <v>0.7312616670000001</v>
-      </c>
-      <c r="C53">
         <v>-0.005019310274056776</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43069</v>
       </c>
       <c r="B54">
-        <v>0.698095965</v>
-      </c>
-      <c r="C54">
         <v>-0.01915695508782955</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43100</v>
       </c>
       <c r="B55">
-        <v>0.7050996679999999</v>
-      </c>
-      <c r="C55">
         <v>0.004124444757160672</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43131</v>
       </c>
       <c r="B56">
-        <v>0.7635070060000002</v>
-      </c>
-      <c r="C56">
         <v>0.03425450083425874</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43159</v>
       </c>
       <c r="B57">
-        <v>0.80731631</v>
-      </c>
-      <c r="C57">
         <v>0.02484214911023708</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43190</v>
       </c>
       <c r="B58">
-        <v>0.8648866469999998</v>
-      </c>
-      <c r="C58">
         <v>0.03185404606900266</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43220</v>
       </c>
       <c r="B59">
-        <v>0.9325567799999999</v>
-      </c>
-      <c r="C59">
         <v>0.03628645907720962</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43251</v>
       </c>
       <c r="B60">
-        <v>0.9118000960000001</v>
-      </c>
-      <c r="C60">
         <v>-0.01074052996259167</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43281</v>
       </c>
       <c r="B61">
-        <v>0.8659955180000001</v>
-      </c>
-      <c r="C61">
         <v>-0.02395887420229525</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43312</v>
       </c>
       <c r="B62">
-        <v>0.877720909</v>
-      </c>
-      <c r="C62">
         <v>0.006283718737206456</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43343</v>
       </c>
       <c r="B63">
-        <v>0.8063484439999999</v>
-      </c>
-      <c r="C63">
         <v>-0.03801015617278836</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43373</v>
       </c>
       <c r="B64">
-        <v>0.784522164</v>
-      </c>
-      <c r="C64">
         <v>-0.01208309508195859</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43404</v>
       </c>
       <c r="B65">
-        <v>0.842492767</v>
-      </c>
-      <c r="C65">
         <v>0.03248522443120527</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43434</v>
       </c>
       <c r="B66">
-        <v>0.8526873159999999</v>
-      </c>
-      <c r="C66">
         <v>0.005533019821075902</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43465</v>
       </c>
       <c r="B67">
-        <v>0.8456928930000001</v>
-      </c>
-      <c r="C67">
         <v>-0.003775285197666789</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43496</v>
       </c>
       <c r="B68">
-        <v>0.8891724220000001</v>
-      </c>
-      <c r="C68">
         <v>0.02355729339637214</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43524</v>
       </c>
       <c r="B69">
-        <v>0.9148939139999999</v>
-      </c>
-      <c r="C69">
         <v>0.01361521674806654</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43555</v>
       </c>
       <c r="B70">
-        <v>0.9048402050000002</v>
-      </c>
-      <c r="C70">
         <v>-0.005250269441296918</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43585</v>
       </c>
       <c r="B71">
-        <v>0.8770579119999999</v>
-      </c>
-      <c r="C71">
         <v>-0.01458510426600335</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43616</v>
       </c>
       <c r="B72">
-        <v>0.879660254</v>
-      </c>
-      <c r="C72">
         <v>0.001386394092245835</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43646</v>
       </c>
       <c r="B73">
-        <v>0.9214714589999999</v>
-      </c>
-      <c r="C73">
         <v>0.02224402250939961</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43677</v>
       </c>
       <c r="B74">
-        <v>0.9445724619999998</v>
-      </c>
-      <c r="C74">
         <v>0.01202255848859823</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43708</v>
       </c>
       <c r="B75">
-        <v>1.001626884</v>
-      </c>
-      <c r="C75">
         <v>0.0293403424736971</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
       <c r="B76">
-        <v>0.9963708449999999</v>
-      </c>
-      <c r="C76">
         <v>-0.002625883496077286</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43769</v>
       </c>
       <c r="B77">
-        <v>1.042050257</v>
-      </c>
-      <c r="C77">
         <v>0.02288122575743201</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43799</v>
       </c>
       <c r="B78">
-        <v>1.089783237</v>
-      </c>
-      <c r="C78">
         <v>0.0233750270525297</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43830</v>
       </c>
       <c r="B79">
-        <v>1.139390926</v>
-      </c>
-      <c r="C79">
         <v>0.02373819835554536</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43861</v>
       </c>
       <c r="B80">
-        <v>1.198995621</v>
-      </c>
-      <c r="C80">
         <v>0.02786059072964386</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43890</v>
       </c>
       <c r="B81">
-        <v>1.186068422</v>
-      </c>
-      <c r="C81">
         <v>-0.005878683375513671</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43921</v>
       </c>
       <c r="B82">
-        <v>1.055396146</v>
-      </c>
-      <c r="C82">
         <v>-0.05977501650220529</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43951</v>
       </c>
       <c r="B83">
-        <v>1.15914508</v>
-      </c>
-      <c r="C83">
         <v>0.05047636885079565</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43982</v>
       </c>
       <c r="B84">
-        <v>1.144062627</v>
-      </c>
-      <c r="C84">
         <v>-0.006985381917920863</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44012</v>
       </c>
       <c r="B85">
-        <v>1.194611292</v>
-      </c>
-      <c r="C85">
         <v>0.02357611403857529</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44043</v>
       </c>
       <c r="B86">
-        <v>1.188291894</v>
-      </c>
-      <c r="C86">
         <v>-0.002879506736813031</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44074</v>
       </c>
       <c r="B87">
-        <v>1.203260442</v>
-      </c>
-      <c r="C87">
         <v>0.006840288556130059</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44104</v>
       </c>
       <c r="B88">
-        <v>1.205854247</v>
-      </c>
-      <c r="C88">
         <v>0.001177257554556554</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44135</v>
       </c>
       <c r="B89">
-        <v>1.17047906</v>
-      </c>
-      <c r="C89">
         <v>-0.01603695577262687</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44165</v>
       </c>
       <c r="B90">
-        <v>1.163531988</v>
-      </c>
-      <c r="C90">
-        <v>-0.003200709063740037</v>
+        <v>-0.004047544692737048</v>
       </c>
     </row>
   </sheetData>
